--- a/config_12.29/shoping_config_vivo.xlsx
+++ b/config_12.29/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8225,7 +8225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8455,6 +8455,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10889,10 +10892,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
+      <selection pane="bottomRight" activeCell="Z425" sqref="Z425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37208,411 +37211,411 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A415" s="6">
+    <row r="415" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="40">
         <v>414</v>
       </c>
-      <c r="B415" s="5">
+      <c r="B415" s="40">
         <v>10331</v>
       </c>
-      <c r="F415" s="5">
-        <v>1</v>
-      </c>
-      <c r="G415" s="6" t="s">
+      <c r="F415" s="40">
+        <v>1</v>
+      </c>
+      <c r="G415" s="40" t="s">
         <v>1419</v>
       </c>
-      <c r="I415" s="6" t="s">
+      <c r="I415" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="J415" s="6" t="s">
+      <c r="J415" s="40" t="s">
         <v>1421</v>
       </c>
-      <c r="L415" s="6">
+      <c r="L415" s="40">
         <v>-31</v>
       </c>
-      <c r="M415" s="5">
-        <v>0</v>
-      </c>
-      <c r="N415" s="5">
-        <v>0</v>
-      </c>
-      <c r="O415" s="5" t="s">
+      <c r="M415" s="40">
+        <v>0</v>
+      </c>
+      <c r="N415" s="40">
+        <v>0</v>
+      </c>
+      <c r="O415" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P415" s="6">
+      <c r="P415" s="40">
         <v>600</v>
       </c>
-      <c r="Q415" s="5" t="s">
+      <c r="Q415" s="40" t="s">
         <v>1422</v>
       </c>
-      <c r="R415" s="52" t="s">
+      <c r="R415" s="41" t="s">
         <v>1423</v>
       </c>
-      <c r="W415" s="6" t="s">
+      <c r="W415" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="X415" s="14" t="s">
+      <c r="X415" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y415" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z415" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA415" s="6">
+      <c r="Y415" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z415" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA415" s="40">
         <v>49</v>
       </c>
-      <c r="AH415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM415" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A416" s="6">
+      <c r="AH415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM415" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="40">
         <v>415</v>
       </c>
-      <c r="B416" s="5">
+      <c r="B416" s="40">
         <v>10332</v>
       </c>
-      <c r="F416" s="5">
-        <v>1</v>
-      </c>
-      <c r="G416" s="6" t="s">
+      <c r="F416" s="40">
+        <v>1</v>
+      </c>
+      <c r="G416" s="40" t="s">
         <v>1424</v>
       </c>
-      <c r="I416" s="6" t="s">
+      <c r="I416" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="J416" s="6" t="s">
+      <c r="J416" s="40" t="s">
         <v>1421</v>
       </c>
-      <c r="L416" s="6">
+      <c r="L416" s="40">
         <v>-31</v>
       </c>
-      <c r="M416" s="5">
-        <v>0</v>
-      </c>
-      <c r="N416" s="5">
-        <v>0</v>
-      </c>
-      <c r="O416" s="5" t="s">
+      <c r="M416" s="40">
+        <v>0</v>
+      </c>
+      <c r="N416" s="40">
+        <v>0</v>
+      </c>
+      <c r="O416" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P416" s="6">
+      <c r="P416" s="40">
         <v>1800</v>
       </c>
-      <c r="Q416" s="5" t="s">
+      <c r="Q416" s="40" t="s">
         <v>1425</v>
       </c>
-      <c r="R416" s="52" t="s">
+      <c r="R416" s="41" t="s">
         <v>1423</v>
       </c>
-      <c r="W416" s="6" t="s">
+      <c r="W416" s="40" t="s">
         <v>1426</v>
       </c>
-      <c r="X416" s="14" t="s">
+      <c r="X416" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y416" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z416" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA416" s="6">
+      <c r="Y416" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z416" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA416" s="40">
         <v>49</v>
       </c>
-      <c r="AH416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM416" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A417" s="5">
+      <c r="AH416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM416" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="40">
         <v>416</v>
       </c>
-      <c r="B417" s="5">
+      <c r="B417" s="40">
         <v>10333</v>
       </c>
-      <c r="F417" s="5">
-        <v>1</v>
-      </c>
-      <c r="G417" s="6" t="s">
+      <c r="F417" s="40">
+        <v>1</v>
+      </c>
+      <c r="G417" s="40" t="s">
         <v>1427</v>
       </c>
-      <c r="I417" s="6" t="s">
+      <c r="I417" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="J417" s="6" t="s">
+      <c r="J417" s="40" t="s">
         <v>1421</v>
       </c>
-      <c r="L417" s="6">
+      <c r="L417" s="40">
         <v>-31</v>
       </c>
-      <c r="M417" s="5">
-        <v>0</v>
-      </c>
-      <c r="N417" s="5">
-        <v>0</v>
-      </c>
-      <c r="O417" s="5" t="s">
+      <c r="M417" s="40">
+        <v>0</v>
+      </c>
+      <c r="N417" s="40">
+        <v>0</v>
+      </c>
+      <c r="O417" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P417" s="6">
+      <c r="P417" s="40">
         <v>4800</v>
       </c>
-      <c r="Q417" s="5" t="s">
+      <c r="Q417" s="40" t="s">
         <v>1109</v>
       </c>
-      <c r="R417" s="52" t="s">
+      <c r="R417" s="41" t="s">
         <v>1423</v>
       </c>
-      <c r="W417" s="6" t="s">
+      <c r="W417" s="40" t="s">
         <v>1112</v>
       </c>
-      <c r="X417" s="14" t="s">
+      <c r="X417" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y417" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z417" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA417" s="6">
+      <c r="Y417" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z417" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA417" s="40">
         <v>49</v>
       </c>
-      <c r="AH417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM417" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A418" s="5">
+      <c r="AH417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM417" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="40">
         <v>417</v>
       </c>
-      <c r="B418" s="5">
+      <c r="B418" s="40">
         <v>10334</v>
       </c>
-      <c r="F418" s="5">
-        <v>1</v>
-      </c>
-      <c r="G418" s="6" t="s">
+      <c r="F418" s="40">
+        <v>1</v>
+      </c>
+      <c r="G418" s="40" t="s">
         <v>1419</v>
       </c>
-      <c r="I418" s="6" t="s">
+      <c r="I418" s="40" t="s">
         <v>1428</v>
       </c>
-      <c r="J418" s="6" t="s">
+      <c r="J418" s="40" t="s">
         <v>1421</v>
       </c>
-      <c r="L418" s="6">
+      <c r="L418" s="40">
         <v>-31</v>
       </c>
-      <c r="M418" s="5">
-        <v>0</v>
-      </c>
-      <c r="N418" s="5">
-        <v>0</v>
-      </c>
-      <c r="O418" s="5" t="s">
+      <c r="M418" s="40">
+        <v>0</v>
+      </c>
+      <c r="N418" s="40">
+        <v>0</v>
+      </c>
+      <c r="O418" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P418" s="6">
+      <c r="P418" s="40">
         <v>9800</v>
       </c>
-      <c r="Q418" s="5" t="s">
+      <c r="Q418" s="40" t="s">
         <v>1111</v>
       </c>
-      <c r="R418" s="52" t="s">
+      <c r="R418" s="41" t="s">
         <v>1105</v>
       </c>
-      <c r="W418" s="6" t="s">
+      <c r="W418" s="40" t="s">
         <v>1112</v>
       </c>
-      <c r="X418" s="14" t="s">
+      <c r="X418" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y418" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z418" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA418" s="6">
+      <c r="Y418" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z418" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA418" s="40">
         <v>50</v>
       </c>
-      <c r="AH418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM418" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A419" s="6">
+      <c r="AH418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM418" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="40">
         <v>418</v>
       </c>
-      <c r="B419" s="5">
+      <c r="B419" s="40">
         <v>10335</v>
       </c>
-      <c r="F419" s="5">
-        <v>1</v>
-      </c>
-      <c r="G419" s="6" t="s">
+      <c r="F419" s="40">
+        <v>1</v>
+      </c>
+      <c r="G419" s="40" t="s">
         <v>1424</v>
       </c>
-      <c r="I419" s="6" t="s">
+      <c r="I419" s="40" t="s">
         <v>1428</v>
       </c>
-      <c r="J419" s="6" t="s">
+      <c r="J419" s="40" t="s">
         <v>1421</v>
       </c>
-      <c r="L419" s="6">
+      <c r="L419" s="40">
         <v>-31</v>
       </c>
-      <c r="M419" s="5">
-        <v>0</v>
-      </c>
-      <c r="N419" s="5">
-        <v>0</v>
-      </c>
-      <c r="O419" s="5" t="s">
+      <c r="M419" s="40">
+        <v>0</v>
+      </c>
+      <c r="N419" s="40">
+        <v>0</v>
+      </c>
+      <c r="O419" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P419" s="6">
+      <c r="P419" s="40">
         <v>19800</v>
       </c>
-      <c r="Q419" s="5" t="s">
+      <c r="Q419" s="40" t="s">
         <v>1113</v>
       </c>
-      <c r="R419" s="52" t="s">
+      <c r="R419" s="41" t="s">
         <v>1423</v>
       </c>
-      <c r="W419" s="6" t="s">
+      <c r="W419" s="40" t="s">
         <v>1112</v>
       </c>
-      <c r="X419" s="14" t="s">
+      <c r="X419" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y419" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z419" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA419" s="6">
+      <c r="Y419" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z419" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA419" s="40">
         <v>50</v>
       </c>
-      <c r="AH419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM419" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A420" s="6">
+      <c r="AH419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM419" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="40">
         <v>419</v>
       </c>
-      <c r="B420" s="5">
+      <c r="B420" s="40">
         <v>10336</v>
       </c>
-      <c r="F420" s="5">
-        <v>1</v>
-      </c>
-      <c r="G420" s="6" t="s">
+      <c r="F420" s="40">
+        <v>1</v>
+      </c>
+      <c r="G420" s="40" t="s">
         <v>1427</v>
       </c>
-      <c r="I420" s="6" t="s">
+      <c r="I420" s="40" t="s">
         <v>1428</v>
       </c>
-      <c r="J420" s="6" t="s">
+      <c r="J420" s="40" t="s">
         <v>1104</v>
       </c>
-      <c r="L420" s="6">
+      <c r="L420" s="40">
         <v>-31</v>
       </c>
-      <c r="M420" s="5">
-        <v>0</v>
-      </c>
-      <c r="N420" s="5">
-        <v>0</v>
-      </c>
-      <c r="O420" s="5" t="s">
+      <c r="M420" s="40">
+        <v>0</v>
+      </c>
+      <c r="N420" s="40">
+        <v>0</v>
+      </c>
+      <c r="O420" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P420" s="6">
+      <c r="P420" s="40">
         <v>49800</v>
       </c>
-      <c r="Q420" s="5" t="s">
+      <c r="Q420" s="40" t="s">
         <v>1114</v>
       </c>
-      <c r="R420" s="52" t="s">
+      <c r="R420" s="41" t="s">
         <v>1423</v>
       </c>
-      <c r="W420" s="6" t="s">
+      <c r="W420" s="40" t="s">
         <v>1112</v>
       </c>
-      <c r="X420" s="14" t="s">
+      <c r="X420" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y420" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z420" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA420" s="6">
+      <c r="Y420" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z420" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA420" s="40">
         <v>50</v>
       </c>
-      <c r="AH420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM420" s="5">
+      <c r="AH420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM420" s="40">
         <v>1</v>
       </c>
     </row>

--- a/config_12.29/shoping_config_vivo.xlsx
+++ b/config_12.29/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1873">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8007,6 +8007,34 @@
   </si>
   <si>
     <t>首充加赠8508888</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1880万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>998元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8085,7 +8113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8182,6 +8210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8225,7 +8259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8458,6 +8492,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10889,13 +10929,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN492"/>
+  <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V408" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z425" sqref="Z425"/>
+      <selection pane="bottomRight" activeCell="C499" sqref="C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42302,6 +42342,168 @@
         <v>1</v>
       </c>
     </row>
+    <row r="493" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A493" s="19">
+        <v>492</v>
+      </c>
+      <c r="B493" s="78">
+        <v>10409</v>
+      </c>
+      <c r="C493" s="78"/>
+      <c r="D493" s="78"/>
+      <c r="E493" s="78"/>
+      <c r="F493" s="78">
+        <v>1</v>
+      </c>
+      <c r="G493" s="78" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H493" s="78"/>
+      <c r="I493" s="78" t="s">
+        <v>1867</v>
+      </c>
+      <c r="J493" s="78" t="s">
+        <v>1868</v>
+      </c>
+      <c r="K493" s="78"/>
+      <c r="L493" s="78">
+        <v>-31</v>
+      </c>
+      <c r="M493" s="78">
+        <v>0</v>
+      </c>
+      <c r="N493" s="78">
+        <v>0</v>
+      </c>
+      <c r="O493" s="78" t="s">
+        <v>1869</v>
+      </c>
+      <c r="P493" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q493" s="78" t="s">
+        <v>1870</v>
+      </c>
+      <c r="R493" s="79" t="s">
+        <v>1871</v>
+      </c>
+      <c r="S493" s="78"/>
+      <c r="T493" s="78"/>
+      <c r="U493" s="78"/>
+      <c r="V493" s="78"/>
+      <c r="W493" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="X493" s="78">
+        <v>9999999</v>
+      </c>
+      <c r="Y493" s="78">
+        <v>1609200000</v>
+      </c>
+      <c r="Z493" s="78">
+        <v>1609775999</v>
+      </c>
+      <c r="AA493" s="78"/>
+      <c r="AB493" s="78"/>
+      <c r="AC493" s="78"/>
+      <c r="AD493" s="78"/>
+      <c r="AE493" s="78"/>
+      <c r="AF493" s="78"/>
+      <c r="AG493" s="78"/>
+      <c r="AH493" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A494" s="19">
+        <v>493</v>
+      </c>
+      <c r="B494" s="78">
+        <v>10410</v>
+      </c>
+      <c r="C494" s="78"/>
+      <c r="D494" s="78"/>
+      <c r="E494" s="78"/>
+      <c r="F494" s="78">
+        <v>1</v>
+      </c>
+      <c r="G494" s="78" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H494" s="78"/>
+      <c r="I494" s="78" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J494" s="78" t="s">
+        <v>1868</v>
+      </c>
+      <c r="K494" s="78"/>
+      <c r="L494" s="78">
+        <v>-31</v>
+      </c>
+      <c r="M494" s="78">
+        <v>0</v>
+      </c>
+      <c r="N494" s="78">
+        <v>0</v>
+      </c>
+      <c r="O494" s="78" t="s">
+        <v>1869</v>
+      </c>
+      <c r="P494" s="78">
+        <v>99800</v>
+      </c>
+      <c r="Q494" s="78" t="s">
+        <v>1870</v>
+      </c>
+      <c r="R494" s="79" t="s">
+        <v>1871</v>
+      </c>
+      <c r="S494" s="78"/>
+      <c r="T494" s="78"/>
+      <c r="U494" s="78"/>
+      <c r="V494" s="78"/>
+      <c r="W494" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="X494" s="78">
+        <v>9999999</v>
+      </c>
+      <c r="Y494" s="78">
+        <v>1609200000</v>
+      </c>
+      <c r="Z494" s="78">
+        <v>1609775999</v>
+      </c>
+      <c r="AA494" s="78"/>
+      <c r="AB494" s="78"/>
+      <c r="AC494" s="78"/>
+      <c r="AD494" s="78"/>
+      <c r="AE494" s="78"/>
+      <c r="AF494" s="78"/>
+      <c r="AG494" s="78"/>
+      <c r="AH494" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.29/shoping_config_vivo.xlsx
+++ b/config_12.29/shoping_config_vivo.xlsx
@@ -8030,11 +8030,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>18800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>998元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10932,10 +10932,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C499" sqref="C499"/>
+      <selection pane="bottomRight" activeCell="R494" sqref="R494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42385,7 +42385,7 @@
         <v>1870</v>
       </c>
       <c r="R493" s="79" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="S493" s="78"/>
       <c r="T493" s="78"/>
@@ -42441,7 +42441,7 @@
       </c>
       <c r="H494" s="78"/>
       <c r="I494" s="78" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="J494" s="78" t="s">
         <v>1868</v>
@@ -42466,7 +42466,7 @@
         <v>1870</v>
       </c>
       <c r="R494" s="79" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="S494" s="78"/>
       <c r="T494" s="78"/>

--- a/config_12.29/shoping_config_vivo.xlsx
+++ b/config_12.29/shoping_config_vivo.xlsx
@@ -10916,10 +10916,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R494" sqref="R494"/>
+      <selection pane="bottomRight" activeCell="X493" sqref="X493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42379,7 +42379,7 @@
         <v>524</v>
       </c>
       <c r="X493" s="78">
-        <v>9999999</v>
+        <v>200</v>
       </c>
       <c r="Y493" s="78">
         <v>1609200000</v>

--- a/config_12.29/shoping_config_vivo.xlsx
+++ b/config_12.29/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1879">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8020,6 +8020,42 @@
   </si>
   <si>
     <t>"金币宝箱抽奖券",</t>
+  </si>
+  <si>
+    <t>VIP11礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8888万金币","水滴*30","玩具锤*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>88880000,30,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9888万金币","水滴*40","玩具锤*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10913,13 +10949,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN494"/>
+  <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="U486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X493" sqref="X493"/>
+      <selection pane="bottomRight" activeCell="A495" sqref="A495:XFD496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42488,6 +42524,172 @@
         <v>1</v>
       </c>
     </row>
+    <row r="495" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A495" s="43">
+        <v>494</v>
+      </c>
+      <c r="B495" s="43">
+        <v>10411</v>
+      </c>
+      <c r="C495" s="43"/>
+      <c r="D495" s="43"/>
+      <c r="E495" s="43"/>
+      <c r="F495" s="43">
+        <v>1</v>
+      </c>
+      <c r="G495" s="43" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H495" s="43"/>
+      <c r="I495" s="43"/>
+      <c r="J495" s="43" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K495" s="43"/>
+      <c r="L495" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M495" s="43">
+        <v>0</v>
+      </c>
+      <c r="N495" s="43">
+        <v>0</v>
+      </c>
+      <c r="O495" s="43" t="s">
+        <v>1872</v>
+      </c>
+      <c r="P495" s="43">
+        <v>79800</v>
+      </c>
+      <c r="Q495" s="43" t="s">
+        <v>1627</v>
+      </c>
+      <c r="R495" s="66" t="s">
+        <v>1873</v>
+      </c>
+      <c r="S495" s="43"/>
+      <c r="T495" s="43"/>
+      <c r="U495" s="43"/>
+      <c r="V495" s="43"/>
+      <c r="W495" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="X495" s="43">
+        <v>99999999</v>
+      </c>
+      <c r="Y495" s="43">
+        <v>1592263800</v>
+      </c>
+      <c r="Z495" s="43">
+        <v>2552233600</v>
+      </c>
+      <c r="AA495" s="43">
+        <v>14</v>
+      </c>
+      <c r="AB495" s="43"/>
+      <c r="AC495" s="43"/>
+      <c r="AD495" s="43"/>
+      <c r="AE495" s="43"/>
+      <c r="AF495" s="43"/>
+      <c r="AG495" s="43"/>
+      <c r="AH495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AJ495" s="43"/>
+      <c r="AK495" s="43"/>
+      <c r="AL495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A496" s="43">
+        <v>495</v>
+      </c>
+      <c r="B496" s="43">
+        <v>10412</v>
+      </c>
+      <c r="C496" s="43"/>
+      <c r="D496" s="43"/>
+      <c r="E496" s="43"/>
+      <c r="F496" s="43">
+        <v>1</v>
+      </c>
+      <c r="G496" s="43" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H496" s="43"/>
+      <c r="I496" s="43"/>
+      <c r="J496" s="43" t="s">
+        <v>1875</v>
+      </c>
+      <c r="K496" s="43"/>
+      <c r="L496" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M496" s="43">
+        <v>0</v>
+      </c>
+      <c r="N496" s="43">
+        <v>0</v>
+      </c>
+      <c r="O496" s="43" t="s">
+        <v>1872</v>
+      </c>
+      <c r="P496" s="43">
+        <v>89800</v>
+      </c>
+      <c r="Q496" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="R496" s="66" t="s">
+        <v>1877</v>
+      </c>
+      <c r="S496" s="43"/>
+      <c r="T496" s="43"/>
+      <c r="U496" s="43"/>
+      <c r="V496" s="43"/>
+      <c r="W496" s="43" t="s">
+        <v>1878</v>
+      </c>
+      <c r="X496" s="43">
+        <v>99999999</v>
+      </c>
+      <c r="Y496" s="43">
+        <v>1592263800</v>
+      </c>
+      <c r="Z496" s="43">
+        <v>2552233600</v>
+      </c>
+      <c r="AA496" s="43">
+        <v>14</v>
+      </c>
+      <c r="AB496" s="43"/>
+      <c r="AC496" s="43"/>
+      <c r="AD496" s="43"/>
+      <c r="AE496" s="43"/>
+      <c r="AF496" s="43"/>
+      <c r="AG496" s="43"/>
+      <c r="AH496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AJ496" s="43"/>
+      <c r="AK496" s="43"/>
+      <c r="AL496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.29/shoping_config_vivo.xlsx
+++ b/config_12.29/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8983,8 +8983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9129,7 +9129,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9209,7 +9211,9 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9289,7 +9293,9 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9369,7 +9375,9 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9449,7 +9457,9 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9529,7 +9539,9 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9609,7 +9621,9 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9689,7 +9703,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9768,6 +9784,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -9848,7 +9867,9 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -10850,7 +10871,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1059</v>
       </c>
@@ -10952,10 +10975,10 @@
   <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U503" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A495" sqref="A495:XFD496"/>
+      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14808,7 +14831,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -14867,7 +14890,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -14926,7 +14949,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -14985,7 +15008,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15044,7 +15067,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16392,7 +16415,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18426,7 +18449,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18485,7 +18508,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1129</v>
@@ -27788,7 +27811,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37223,7 +37246,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1377</v>
